--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1310351.133562261</v>
+        <v>1328725.823028382</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>53.5822215865606</v>
+        <v>299.8120100236805</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>57.36587538956327</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>337.7957471648047</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>116.2349668968053</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>59.66385641544539</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>129.7411677825661</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>286.2005890034046</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>170.2355839909</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>48.26767095054652</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>101.9284127172181</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.08917415054654</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0.7644211441605784</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1576,10 +1576,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>58.45940450219441</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>110.215339532346</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>31.24390285116836</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>170.5809693952293</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>10.67818248838738</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>6.348656829617493</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>59.49750230859989</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>94.44909057611498</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>44.76059872677006</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>101.1426547140133</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>108.6200406500436</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>11.84214567871265</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>218.4530746249747</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3442,7 +3442,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.14085215535403</v>
+        <v>71.87010112028651</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3664,19 +3664,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>118.4093331729689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>37.3439959398769</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -3709,7 +3709,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.06377547555462</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
@@ -4135,25 +4135,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.7861096747049</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>235.8832106089686</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532.9757468194221</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C2" t="n">
-        <v>532.9757468194221</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="D2" t="n">
-        <v>532.9757468194221</v>
+        <v>1167.480957434959</v>
       </c>
       <c r="E2" t="n">
-        <v>532.9757468194221</v>
+        <v>781.6927048367149</v>
       </c>
       <c r="F2" t="n">
-        <v>526.0302460702186</v>
+        <v>370.7068000471074</v>
       </c>
       <c r="G2" t="n">
-        <v>108.0664379684055</v>
+        <v>356.7833959856983</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4422,16 +4422,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.3338608103785</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>340.388532134052</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406182</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1937.083492693021</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>1937.083492693021</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,7 +4580,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791253</v>
@@ -4598,19 +4598,19 @@
         <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2443.387305656315</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018223</v>
+        <v>1759.55576304263</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1386.09000478155</v>
       </c>
       <c r="Y5" t="n">
-        <v>2323.683332757143</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064343</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940986</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117055</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137951</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521275</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>597.07729957758</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064343</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064343</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064343</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1099.292566481063</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C8" t="n">
-        <v>1099.292566481063</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>1099.292566481063</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>713.5043138828189</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>706.5588131336154</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X8" t="n">
-        <v>1485.892406545185</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="Y8" t="n">
-        <v>1485.892406545185</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>352.6741383092204</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>352.6741383092204</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286579</v>
+        <v>352.6741383092204</v>
       </c>
       <c r="W10" t="n">
-        <v>422.6486545462877</v>
+        <v>352.6741383092204</v>
       </c>
       <c r="X10" t="n">
-        <v>422.6486545462877</v>
+        <v>352.6741383092204</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>249.7161456655658</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701559</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395486</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.1480540508779</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C13" t="n">
-        <v>822.1480540508779</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>675.007103038344</v>
       </c>
       <c r="E13" t="n">
         <v>674.2349604684848</v>
@@ -5194,25 +5194,25 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.712528333286</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W13" t="n">
-        <v>1098.712528333286</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X13" t="n">
-        <v>870.7229774352684</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y13" t="n">
-        <v>870.7229774352684</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>2041.248044820708</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>991.0842369787848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1439.866367020332</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1439.866367020332</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1439.866367020332</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1439.866367020332</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1439.866367020332</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>1439.866367020332</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.876816122315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>991.0842369787848</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5522,7 +5522,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5540,16 +5540,16 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263797</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465857</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372321</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M18" t="n">
-        <v>3169.469405338473</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N18" t="n">
-        <v>3973.880983602624</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>4253.421048821321</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557068</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>356.6647764207315</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C19" t="n">
-        <v>356.6647764207315</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207315</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028583</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1276.512541329479</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1276.512541329479</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1276.512541329479</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1276.512541329479</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>987.0953712925186</v>
+        <v>1212.672284522552</v>
       </c>
       <c r="X19" t="n">
-        <v>759.1058203945013</v>
+        <v>984.6827336245351</v>
       </c>
       <c r="Y19" t="n">
-        <v>538.3132412509711</v>
+        <v>763.890154481005</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5744,16 +5744,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5774,28 +5774,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L21" t="n">
-        <v>953.6472828615139</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305959</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y22" t="n">
-        <v>437.6964226305959</v>
+        <v>1064.424802345397</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4094.296631519491</v>
+        <v>3634.504361520963</v>
       </c>
       <c r="C25" t="n">
-        <v>3925.360448591584</v>
+        <v>3465.568178593056</v>
       </c>
       <c r="D25" t="n">
-        <v>3775.243809179248</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E25" t="n">
-        <v>3627.330715596855</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596855</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="U25" t="n">
-        <v>4637.069157803799</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="V25" t="n">
-        <v>4382.384669597912</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="W25" t="n">
-        <v>4322.286182417508</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="X25" t="n">
-        <v>4094.296631519491</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="Y25" t="n">
-        <v>4094.296631519491</v>
+        <v>3816.152826351203</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263797</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465857</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372321</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>3436.0418410801</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>3765.904468744133</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>4045.44453396283</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698577</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4024.02934650303</v>
+        <v>310.6051391271017</v>
       </c>
       <c r="C28" t="n">
-        <v>3855.093163575123</v>
+        <v>310.6051391271017</v>
       </c>
       <c r="D28" t="n">
-        <v>3704.976524162787</v>
+        <v>310.6051391271017</v>
       </c>
       <c r="E28" t="n">
-        <v>3704.976524162787</v>
+        <v>310.6051391271017</v>
       </c>
       <c r="F28" t="n">
-        <v>3609.573402368731</v>
+        <v>310.6051391271017</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368731</v>
+        <v>142.4298174469223</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>142.4298174469223</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576117</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4749.779469576117</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4749.779469576117</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>4495.09498137023</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>4205.677811333269</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X28" t="n">
-        <v>4205.677811333269</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y28" t="n">
-        <v>4205.677811333269</v>
+        <v>310.6051391271017</v>
       </c>
     </row>
     <row r="29">
@@ -6458,37 +6458,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,13 +6497,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6528,16 +6528,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256434</v>
@@ -6549,10 +6549,10 @@
         <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
         <v>1808.163466324677</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>206.9343042381077</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C31" t="n">
-        <v>206.9343042381077</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D31" t="n">
-        <v>206.9343042381077</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E31" t="n">
-        <v>206.9343042381077</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F31" t="n">
-        <v>206.9343042381077</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>206.9343042381077</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>898.7925182488382</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>898.7925182488382</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>609.3753482118775</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X31" t="n">
-        <v>609.3753482118775</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y31" t="n">
-        <v>388.5827690683474</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,22 +6683,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6716,31 +6716,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507006</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.3337308726216</v>
+        <v>4368.210994661431</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>4199.274811733524</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>4049.158172321188</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>3901.245078738795</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U34" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V34" t="n">
-        <v>1167.181495781369</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="W34" t="n">
-        <v>877.7643257444088</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="X34" t="n">
-        <v>649.7747748463914</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="Y34" t="n">
-        <v>428.9821957028613</v>
+        <v>4549.85945949167</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,46 +6926,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,28 +7002,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977053</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
         <v>2051.878056918008</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1029.666285013068</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="C37" t="n">
-        <v>860.7301020851612</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="D37" t="n">
-        <v>710.6134626728254</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R37" t="n">
-        <v>1432.107328986838</v>
+        <v>4788.258511276628</v>
       </c>
       <c r="S37" t="n">
-        <v>1432.107328986838</v>
+        <v>4588.338501192181</v>
       </c>
       <c r="T37" t="n">
-        <v>1432.107328986838</v>
+        <v>4588.338501192181</v>
       </c>
       <c r="U37" t="n">
-        <v>1432.107328986838</v>
+        <v>4588.338501192181</v>
       </c>
       <c r="V37" t="n">
-        <v>1432.107328986838</v>
+        <v>4588.338501192181</v>
       </c>
       <c r="W37" t="n">
-        <v>1432.107328986838</v>
+        <v>4298.92133115522</v>
       </c>
       <c r="X37" t="n">
-        <v>1432.107328986838</v>
+        <v>4070.931780257203</v>
       </c>
       <c r="Y37" t="n">
-        <v>1211.314749843308</v>
+        <v>4070.931780257203</v>
       </c>
     </row>
     <row r="38">
@@ -7166,13 +7166,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7190,16 +7190,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>624.8682044203586</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>932.1883377003201</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4008.587333430647</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="C40" t="n">
-        <v>4008.587333430647</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="D40" t="n">
-        <v>3858.470694018311</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="E40" t="n">
-        <v>3858.470694018311</v>
+        <v>561.5381600365058</v>
       </c>
       <c r="F40" t="n">
-        <v>3738.865306974908</v>
+        <v>414.6482125385954</v>
       </c>
       <c r="G40" t="n">
-        <v>3570.689985294729</v>
+        <v>246.472890858416</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576119</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>4525.994054365625</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>4525.994054365625</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V40" t="n">
-        <v>4525.994054365625</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W40" t="n">
-        <v>4236.576884328664</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X40" t="n">
-        <v>4008.587333430647</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="Y40" t="n">
-        <v>4008.587333430647</v>
+        <v>709.4512536188989</v>
       </c>
     </row>
     <row r="41">
@@ -7403,52 +7403,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4024.029346503031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3855.093163575124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3855.093163575124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3855.093163575124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3708.203216077214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3540.027894397035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576119</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>4749.779469576119</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>4749.779469576119</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>4495.094981370232</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>4205.677811333271</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X43" t="n">
-        <v>4205.677811333271</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>4205.677811333271</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7643,7 +7643,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823786</v>
@@ -7670,25 +7670,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,31 +7713,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>303.4575213834697</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>550.2226492899338</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>857.5427825698953</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
         <v>2331.418122136705</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3570.689985294727</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="C46" t="n">
-        <v>3570.689985294727</v>
+        <v>851.5101842136145</v>
       </c>
       <c r="D46" t="n">
-        <v>3570.689985294727</v>
+        <v>701.3935448012787</v>
       </c>
       <c r="E46" t="n">
-        <v>3570.689985294727</v>
+        <v>553.4804512188856</v>
       </c>
       <c r="F46" t="n">
-        <v>3570.689985294727</v>
+        <v>406.5905037209752</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294727</v>
+        <v>238.4151820407958</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.859459491669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281175</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>4036.945405494733</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>3798.679536192744</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W46" t="n">
-        <v>3798.679536192744</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X46" t="n">
-        <v>3570.689985294727</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y46" t="n">
-        <v>3570.689985294727</v>
+        <v>1020.446367141521</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>43.65987261462612</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,16 +9006,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>145.2351313103792</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>412.6002929596431</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>91.23759968302079</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L21" t="n">
-        <v>158.8724419039331</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9960,19 +9960,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>360.5026862907249</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10197,13 +10197,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,25 +10428,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>43.65987261462539</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10668,13 +10668,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>52.4973336130526</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,22 +10902,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>91.23759968302141</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11142,22 +11142,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M42" t="n">
-        <v>360.5026862907257</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627448</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,19 +11376,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>15.83804904622875</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.7428060313908</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>145.6695415024086</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.50494790159839</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>87.70547045125728</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,10 +23947,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>255.2790954854226</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.25101078670798</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>207.9064708637074</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>142.2668161885949</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>227.0254960279911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>50.97195744681626</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>65.65864673750193</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>44.2783933089179</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>40.29378771749252</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>133.5789023442186</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25132,16 +25132,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>33.6845686988533</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.82350024843878</v>
+        <v>38.0942512835063</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,19 +25552,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>27.01171484996232</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>111.5698324276592</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,13 +25606,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,13 +25795,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>68.85005289198151</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>9.127718692831252</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>16.25443271485943</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>947434.0422453423</v>
+        <v>947434.0422453427</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>947434.0422453429</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="16">
@@ -26314,7 +26314,7 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
@@ -26323,7 +26323,7 @@
         <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
@@ -26341,19 +26341,19 @@
         <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="M2" t="n">
         <v>449683.4186983651</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="N2" t="n">
-        <v>449683.4186983653</v>
-      </c>
       <c r="O2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,19 +26375,19 @@
         <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029923</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-377747.0380912594</v>
+        <v>-375218.7169278172</v>
       </c>
       <c r="C6" t="n">
-        <v>212220.841123285</v>
+        <v>214749.1622867273</v>
       </c>
       <c r="D6" t="n">
-        <v>212220.841123285</v>
+        <v>214749.1622867274</v>
       </c>
       <c r="E6" t="n">
-        <v>-198802.3085175465</v>
+        <v>-196767.4892795497</v>
       </c>
       <c r="F6" t="n">
-        <v>326357.7279593491</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="G6" t="n">
-        <v>326357.7279593494</v>
+        <v>328392.5471973462</v>
       </c>
       <c r="H6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973464</v>
       </c>
       <c r="I6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973462</v>
       </c>
       <c r="J6" t="n">
-        <v>149934.5087667564</v>
+        <v>151969.3280047532</v>
       </c>
       <c r="K6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="L6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="M6" t="n">
-        <v>191556.7127255122</v>
+        <v>193591.5319635091</v>
       </c>
       <c r="N6" t="n">
-        <v>326357.7279593495</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="O6" t="n">
-        <v>326357.7279593492</v>
+        <v>328392.5471973462</v>
       </c>
       <c r="P6" t="n">
-        <v>326357.7279593495</v>
+        <v>328392.5471973462</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>270.3405511777966</v>
+        <v>24.11076274067665</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>109.8809457090646</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>152.4187013741502</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>16.8872944558783</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>270.0029717592482</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>96.50703242634975</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>82.40437116745278</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>96.53325266007596</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>243.5485860298949</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>238.2553273860445</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>116.6562406348767</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31279,46 +31279,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31455,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,46 +31753,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594833</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>354.0842496650922</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>394.4928362664036</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>745.7948663576559</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>241.8130382709607</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>401.661976733487</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L21" t="n">
-        <v>408.1301468599573</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>88.0130327850741</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>670.9270633411911</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -37148,25 +37148,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>376.8544460126382</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37388,13 +37388,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>385.6919070110654</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
@@ -37561,7 +37561,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37622,22 +37622,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>340.4953046390457</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q39" t="n">
         <v>88.0130327850741</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37862,22 +37862,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M42" t="n">
-        <v>670.9270633411919</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951466</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>166.413487634168</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315246</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1328725.823028382</v>
+        <v>1404255.492693187</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>382.8908255841847</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>299.8120100236805</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>290.1430309519016</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>116.2349668968053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>129.7411677825661</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>80.8887794931297</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>286.2005890034046</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>15.14483238681421</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>72.6255783128429</v>
       </c>
       <c r="Y10" t="n">
-        <v>101.9284127172181</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7644211441605784</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.3062600431766</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>262.306353505601</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>31.24390285116836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>151.4314355753203</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.67818248838738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6.348656829617493</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>32.28492340924034</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.1163355383943</v>
       </c>
       <c r="I28" t="n">
-        <v>44.76059872677006</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2845,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>101.1426547140133</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>190.6405752120378</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>33.66791875440828</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>11.84214567871265</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>71.87010112028651</v>
+        <v>66.53347333264928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>37.3439959398769</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>70.70017889257694</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>66.140852155354</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>139.7861096747049</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>89.35789353273597</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1525.74665604171</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C2" t="n">
-        <v>1525.74665604171</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D2" t="n">
-        <v>1167.480957434959</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E2" t="n">
-        <v>781.6927048367149</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="F2" t="n">
-        <v>370.7068000471074</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>356.7833959856983</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017521</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1525.74665604171</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>667.7988452409105</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
-        <v>667.7988452409105</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>2014.892857925728</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036447</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,7 +4582,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791253</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656315</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312744</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.55576304263</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.09000478155</v>
+        <v>2014.892857925728</v>
       </c>
       <c r="Y5" t="n">
-        <v>1268.68094731003</v>
+        <v>2014.892857925728</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4637,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S7" t="n">
-        <v>597.07729957758</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T7" t="n">
-        <v>369.7691122461817</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="U7" t="n">
-        <v>369.7691122461817</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="V7" t="n">
-        <v>369.7691122461817</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="W7" t="n">
-        <v>369.7691122461817</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X7" t="n">
-        <v>369.7691122461817</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.7691122461817</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533143</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278602</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278602</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.21241430279</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.7161456655658</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406187</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406187</v>
+        <v>484.423641878219</v>
       </c>
       <c r="T10" t="n">
-        <v>352.6741383092204</v>
+        <v>484.423641878219</v>
       </c>
       <c r="U10" t="n">
-        <v>352.6741383092204</v>
+        <v>484.423641878219</v>
       </c>
       <c r="V10" t="n">
-        <v>352.6741383092204</v>
+        <v>484.423641878219</v>
       </c>
       <c r="W10" t="n">
-        <v>352.6741383092204</v>
+        <v>484.423641878219</v>
       </c>
       <c r="X10" t="n">
-        <v>352.6741383092204</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.7161456655658</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5039,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.007103038344</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>675.007103038344</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>675.007103038344</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
         <v>674.2349604684848</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.007103038344</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,58 +5254,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>940.1463453738957</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,13 +5533,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>378.1030765138945</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>582.2416896507652</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>810.2549326310402</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>555.5704444251534</v>
       </c>
       <c r="W19" t="n">
-        <v>1212.672284522552</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X19" t="n">
-        <v>984.6827336245351</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y19" t="n">
-        <v>763.890154481005</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5749,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823786</v>
@@ -5768,13 +5770,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5786,13 +5788,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5817,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>882.7763375151577</v>
+        <v>3926.121309839311</v>
       </c>
       <c r="C22" t="n">
-        <v>713.8401545872508</v>
+        <v>3757.185126911404</v>
       </c>
       <c r="D22" t="n">
-        <v>563.7235151749151</v>
+        <v>3607.068487499069</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>4396.898413455993</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>4107.769774669551</v>
       </c>
       <c r="V22" t="n">
-        <v>1075.21084526296</v>
+        <v>4107.769774669551</v>
       </c>
       <c r="W22" t="n">
-        <v>1075.21084526296</v>
+        <v>4107.769774669551</v>
       </c>
       <c r="X22" t="n">
-        <v>1075.21084526296</v>
+        <v>4107.769774669551</v>
       </c>
       <c r="Y22" t="n">
-        <v>1064.424802345397</v>
+        <v>4107.769774669551</v>
       </c>
     </row>
     <row r="23">
@@ -5969,31 +5971,31 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6011,13 +6013,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>3158.474758001781</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507006</v>
+        <v>3465.794891281742</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.678268171039</v>
+        <v>3795.657518945775</v>
       </c>
       <c r="O24" t="n">
-        <v>2080.218333389736</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3634.504361520963</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="C25" t="n">
-        <v>3465.568178593056</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>298.0034468871727</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>129.8281252069933</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281175</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494733</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>4036.945405494733</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>4036.945405494733</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>4036.945405494733</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y25" t="n">
-        <v>3816.152826351203</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="26">
@@ -6242,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>310.6051391271017</v>
+        <v>4389.788938147092</v>
       </c>
       <c r="C28" t="n">
-        <v>310.6051391271017</v>
+        <v>4220.852755219185</v>
       </c>
       <c r="D28" t="n">
-        <v>310.6051391271017</v>
+        <v>4070.73611580685</v>
       </c>
       <c r="E28" t="n">
-        <v>310.6051391271017</v>
+        <v>3922.823022224457</v>
       </c>
       <c r="F28" t="n">
-        <v>310.6051391271017</v>
+        <v>3775.933074726546</v>
       </c>
       <c r="G28" t="n">
-        <v>142.4298174469223</v>
+        <v>3607.757753046367</v>
       </c>
       <c r="H28" t="n">
-        <v>142.4298174469223</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W28" t="n">
-        <v>531.3977182706318</v>
+        <v>4571.437402977332</v>
       </c>
       <c r="X28" t="n">
-        <v>531.3977182706318</v>
+        <v>4571.437402977332</v>
       </c>
       <c r="Y28" t="n">
-        <v>310.6051391271017</v>
+        <v>4571.437402977332</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
@@ -6470,43 +6472,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1096.475226584133</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C31" t="n">
-        <v>927.5390436562259</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D31" t="n">
-        <v>777.4224042438901</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>629.509310661497</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6649,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557902</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y31" t="n">
-        <v>1278.123691414372</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="32">
@@ -6701,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4368.210994661431</v>
+        <v>1006.27269220504</v>
       </c>
       <c r="C34" t="n">
-        <v>4199.274811733524</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D34" t="n">
-        <v>4049.158172321188</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E34" t="n">
-        <v>3901.245078738795</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426964</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746785</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V34" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W34" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X34" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y34" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,64 +6922,64 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3889.283315426963</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C37" t="n">
-        <v>3889.283315426963</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D37" t="n">
-        <v>3889.283315426963</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E37" t="n">
-        <v>3889.283315426963</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426963</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746784</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4788.258511276628</v>
+        <v>1431.710741939065</v>
       </c>
       <c r="S37" t="n">
-        <v>4588.338501192181</v>
+        <v>1431.710741939065</v>
       </c>
       <c r="T37" t="n">
-        <v>4588.338501192181</v>
+        <v>1431.710741939065</v>
       </c>
       <c r="U37" t="n">
-        <v>4588.338501192181</v>
+        <v>1142.582103152623</v>
       </c>
       <c r="V37" t="n">
-        <v>4588.338501192181</v>
+        <v>887.897614946736</v>
       </c>
       <c r="W37" t="n">
-        <v>4298.92133115522</v>
+        <v>598.4804449097754</v>
       </c>
       <c r="X37" t="n">
-        <v>4070.931780257203</v>
+        <v>598.4804449097754</v>
       </c>
       <c r="Y37" t="n">
-        <v>4070.931780257203</v>
+        <v>377.6878657662453</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,22 +7159,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>709.4512536188989</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C40" t="n">
-        <v>709.4512536188989</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>709.4512536188989</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>561.5381600365058</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>414.6482125385954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>246.472890858416</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7366,16 +7368,16 @@
         <v>964.1357418247858</v>
       </c>
       <c r="V40" t="n">
-        <v>709.4512536188989</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W40" t="n">
-        <v>709.4512536188989</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X40" t="n">
-        <v>709.4512536188989</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y40" t="n">
-        <v>709.4512536188989</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,40 +7396,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775518</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>164.0260330313505</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="44">
@@ -7628,46 +7630,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1020.446367141521</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C46" t="n">
-        <v>851.5101842136145</v>
+        <v>506.0709201104371</v>
       </c>
       <c r="D46" t="n">
-        <v>701.3935448012787</v>
+        <v>506.0709201104371</v>
       </c>
       <c r="E46" t="n">
-        <v>553.4804512188856</v>
+        <v>506.0709201104371</v>
       </c>
       <c r="F46" t="n">
-        <v>406.5905037209752</v>
+        <v>506.0709201104371</v>
       </c>
       <c r="G46" t="n">
-        <v>238.4151820407958</v>
+        <v>337.8955984302577</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>187.477589978201</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W46" t="n">
-        <v>1020.446367141521</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X46" t="n">
-        <v>1020.446367141521</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y46" t="n">
-        <v>1020.446367141521</v>
+        <v>675.007103038344</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>145.2351313103792</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>91.23759968302147</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10118,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>253.7371603504743</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>145.6695415024086</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330891823</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>23.93099889297633</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>255.2790954854226</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24139,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>70.11612548306894</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.9064708637074</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>142.2668161885949</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>116.6289049582958</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>1.797492829141845</v>
       </c>
       <c r="I28" t="n">
-        <v>65.65864673750193</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>44.2783933089179</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>30.90698584635149</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.5789023442196</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.5789023442186</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>38.0942512835063</v>
+        <v>43.43087907114352</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>111.5698324276592</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>147.8844744595178</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>44.278393308918</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>9.127718692831252</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>21.06135193153602</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="11">
@@ -26314,10 +26316,10 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.0176719629</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
         <v>449683.4186983652</v>
@@ -26326,25 +26328,25 @@
         <v>449683.4186983653</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="H2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="M2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="N2" t="n">
         <v>449683.4186983652</v>
@@ -26353,7 +26355,7 @@
         <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26433,10 +26435,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26470,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,25 +26484,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-375218.7169278172</v>
+        <v>-375218.7169278171</v>
       </c>
       <c r="C6" t="n">
         <v>214749.1622867273</v>
       </c>
       <c r="D6" t="n">
-        <v>214749.1622867274</v>
+        <v>214749.1622867273</v>
       </c>
       <c r="E6" t="n">
-        <v>-196767.4892795497</v>
+        <v>-196767.4892795498</v>
       </c>
       <c r="F6" t="n">
         <v>328392.5471973463</v>
       </c>
       <c r="G6" t="n">
-        <v>328392.5471973462</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="H6" t="n">
         <v>328392.5471973464</v>
       </c>
       <c r="I6" t="n">
-        <v>328392.5471973462</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="J6" t="n">
-        <v>151969.3280047532</v>
+        <v>151969.3280047535</v>
       </c>
       <c r="K6" t="n">
         <v>328392.5471973463</v>
@@ -26552,16 +26554,16 @@
         <v>328392.5471973463</v>
       </c>
       <c r="M6" t="n">
-        <v>193591.5319635091</v>
+        <v>193591.5319635092</v>
       </c>
       <c r="N6" t="n">
         <v>328392.5471973463</v>
       </c>
       <c r="O6" t="n">
-        <v>328392.5471973462</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="P6" t="n">
-        <v>328392.5471973462</v>
+        <v>328392.5471973464</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>23.98522015752673</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>24.11076274067665</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>152.4187013741502</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>75.12986081910594</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>270.0029717592482</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>82.40437116745278</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>144.1463259649546</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>96.53325266007596</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>201.3034879708436</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>153.0840770761943</v>
       </c>
       <c r="Y10" t="n">
-        <v>116.6562406348767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31279,46 +31281,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>394.4928362664036</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>241.8130382709607</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35972,19 +35974,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36215,10 +36217,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36452,10 +36454,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36923,10 +36925,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37637,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>460.8305752819989</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1404255.492693187</v>
+        <v>1397238.477801476</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>382.8908255841847</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>23.78823718901957</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.46389722690851</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>290.1430309519016</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>5.983388191319386</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>48.27083703815642</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>80.8887794931297</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>55.83569625555535</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>15.14483238681421</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>72.6255783128429</v>
+        <v>27.45797858609773</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431766</v>
+        <v>40.6853861755107</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>262.306353505601</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>195.8155841663235</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>151.4314355753203</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>32.28492340924034</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H28" t="n">
-        <v>147.1163355383943</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.18719652447322</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>190.6405752120378</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>33.66791875440828</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3204,10 +3204,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>105.0903281190973</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.53347333264928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>105.4007546619418</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.70017889257694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>93.87916681139878</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>66.140852155354</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>89.35789353273597</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1567.641263708175</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1198.678746767763</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="D2" t="n">
-        <v>840.4130481610125</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="E2" t="n">
-        <v>454.6247955627683</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>495.9353123353287</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>77.97150423351553</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>77.97150423351553</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2344.380435748108</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1954.241103772296</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4400,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2014.892857925728</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>73.91021233765171</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>59.98680827624262</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>59.98680827624262</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4600,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.892857925728</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>2014.892857925728</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>148.3579275038932</v>
       </c>
       <c r="F7" t="n">
         <v>99.59950625323012</v>
@@ -4725,7 +4725,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>617.0062271882081</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>617.0062271882081</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>617.0062271882081</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>858.4397953655689</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>489.4772784251572</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>131.2115798184067</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2681.851280526491</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2681.851280526491</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2350.788393182921</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>1245.039635429691</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>484.423641878219</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>484.423641878219</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>484.423641878219</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>484.423641878219</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>484.423641878219</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>411.0644718652463</v>
+        <v>670.9767331549069</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>450.1841540113768</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5062,10 +5062,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,25 +5108,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643586</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5363,19 +5363,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632138</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D16" t="n">
-        <v>822.148054050878</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="17">
@@ -5503,28 +5503,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>810.2549326310402</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>555.5704444251534</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>266.1532743881928</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>266.1532743881928</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5797,7 +5797,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5849,7 +5849,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3926.121309839311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4396.898413455993</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4107.769774669551</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4107.769774669551</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4107.769774669551</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4107.769774669551</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4107.769774669551</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,10 +6010,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.474758001781</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281742</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945775</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698579</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>298.0034468871727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>129.8281252069933</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4389.788938147092</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>4220.852755219185</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D28" t="n">
-        <v>4070.73611580685</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E28" t="n">
-        <v>3922.823022224457</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F28" t="n">
-        <v>3775.933074726546</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G28" t="n">
-        <v>3607.757753046367</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>4860.854573014292</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>4571.437402977332</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>4571.437402977332</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>4571.437402977332</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6475,25 +6475,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.130185042679</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C31" t="n">
-        <v>245.130185042679</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D31" t="n">
         <v>245.130185042679</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1306.350032969985</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1017.221394183544</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>762.5369059776569</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>473.1197359406963</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>245.130185042679</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y31" t="n">
-        <v>245.130185042679</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1006.27269220504</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632137</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V34" t="n">
-        <v>1187.92115703528</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W34" t="n">
-        <v>1187.92115703528</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X34" t="n">
-        <v>1187.92115703528</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y34" t="n">
-        <v>1187.92115703528</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,28 +6922,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>377.6878657662453</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1431.710741939065</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1431.710741939065</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1431.710741939065</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1142.582103152623</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>887.897614946736</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>598.4804449097754</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>598.4804449097754</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>377.6878657662453</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>711.072954880832</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W40" t="n">
-        <v>964.1357418247858</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X40" t="n">
-        <v>964.1357418247858</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="Y40" t="n">
-        <v>892.7214197110717</v>
+        <v>985.7136853104475</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,7 +7490,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K42" t="n">
         <v>634.0455001582217</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1096.475226584133</v>
+        <v>192.044532683921</v>
       </c>
       <c r="C43" t="n">
-        <v>927.5390436562259</v>
+        <v>192.044532683921</v>
       </c>
       <c r="D43" t="n">
-        <v>777.4224042438901</v>
+        <v>192.044532683921</v>
       </c>
       <c r="E43" t="n">
-        <v>629.509310661497</v>
+        <v>192.044532683921</v>
       </c>
       <c r="F43" t="n">
-        <v>482.6193631635866</v>
+        <v>192.044532683921</v>
       </c>
       <c r="G43" t="n">
-        <v>314.4440414834072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>164.0260330313505</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>192.044532683921</v>
       </c>
       <c r="Y43" t="n">
-        <v>1278.123691414372</v>
+        <v>192.044532683921</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>506.0709201104371</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>506.0709201104371</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>506.0709201104371</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>506.0709201104371</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>337.8955984302577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>187.477589978201</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>675.007103038344</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>675.007103038344</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>675.007103038344</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,10 +9722,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776745</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127836</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.671796620807</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127836</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127836</v>
       </c>
       <c r="K42" t="n">
-        <v>223.6742649934481</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="14">
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891823</v>
+        <v>177.8992671765841</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>23.93099889297633</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>70.11612548306894</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>116.6289049582958</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H28" t="n">
-        <v>1.797492829141845</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,19 +24654,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>121.0596245741546</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>30.90698584635149</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>133.5789023442196</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>116.457232939292</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>51.71984429841022</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.43087907114352</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>74.43122551999551</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>147.8844744595178</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>72.61440165197881</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>44.278393308918</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>21.06135193153602</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453427</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453427</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719631</v>
+      </c>
+      <c r="C2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
         <v>449683.4186983652</v>
@@ -26328,31 +26328,31 @@
         <v>449683.4186983653</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="J2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="K2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>449683.4186983653</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="O2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
         <v>449683.4186983653</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,7 +26438,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26459,7 +26459,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,7 +26490,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26502,7 +26502,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26530,40 +26530,40 @@
         <v>214749.1622867273</v>
       </c>
       <c r="E6" t="n">
-        <v>-196767.4892795498</v>
+        <v>-197742.0805392714</v>
       </c>
       <c r="F6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="G6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376246</v>
       </c>
       <c r="H6" t="n">
-        <v>328392.5471973464</v>
+        <v>327417.9559376246</v>
       </c>
       <c r="I6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="J6" t="n">
-        <v>151969.3280047535</v>
+        <v>150994.7367450319</v>
       </c>
       <c r="K6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="L6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376246</v>
       </c>
       <c r="M6" t="n">
-        <v>193591.5319635092</v>
+        <v>192616.9407037876</v>
       </c>
       <c r="N6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="O6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="P6" t="n">
-        <v>328392.5471973464</v>
+        <v>327417.9559376247</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26749,7 +26749,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>23.98522015752673</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>128.1430790558417</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>120.5017245654297</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>75.12986081910594</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>145.9479280535419</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>97.15021098477483</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>144.1463259649546</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>326.0946738167064</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,10 +27903,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>201.3034879708436</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>153.0840770761943</v>
+        <v>198.2516768029394</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768313</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K42" t="n">
-        <v>374.2497035813873</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -38037,7 +38037,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1397238.477801476</v>
+        <v>1402177.740650509</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>47.17655061898355</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>23.78823718901957</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.46389722690851</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>30.54110646053104</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5.983388191319386</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>15.94830397803332</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>48.27083703815642</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>9.728248008472617</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>55.83569625555535</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>64.76935934992336</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.46389722690844</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.45797858609773</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>165.1785243658346</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>112.6185215999992</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>40.6853861755107</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>24.01153903325445</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>195.8155841663235</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>46.18719652447322</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>73.66308659887136</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>105.0903281190973</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>115.5269768002176</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.4007546619418</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>93.87916681139878</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>135.5166535630853</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>42.81113462701818</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.883734065348</v>
+        <v>898.370220641533</v>
       </c>
       <c r="C2" t="n">
-        <v>906.9212171249362</v>
+        <v>898.370220641533</v>
       </c>
       <c r="D2" t="n">
-        <v>906.9212171249362</v>
+        <v>898.370220641533</v>
       </c>
       <c r="E2" t="n">
-        <v>906.9212171249362</v>
+        <v>512.5819680432887</v>
       </c>
       <c r="F2" t="n">
-        <v>495.9353123353287</v>
+        <v>101.5960632536812</v>
       </c>
       <c r="G2" t="n">
-        <v>77.97150423351553</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>77.97150423351553</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1675.109392681466</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1284.970060705655</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117056</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F4" t="n">
-        <v>283.2093037137952</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521276</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2095034521276</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.0839286340174</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>439.1214116936057</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>80.85571308685519</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>80.85571308685519</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>73.91021233765171</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>59.98680827624262</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>59.98680827624262</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2681.039693060613</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2681.039693060613</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2681.039693060613</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2349.976805717043</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1997.208150446929</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1623.742392185849</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1233.603060210037</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296.2710210862863</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>296.2710210862863</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D7" t="n">
-        <v>296.2710210862863</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="E7" t="n">
-        <v>148.3579275038932</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>232.7692952219034</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>63.76949496023579</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>63.76949496023579</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>63.76949496023579</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.919485916526</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>858.4397953655689</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>489.4772784251572</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>131.2115798184067</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097703</v>
@@ -4795,61 +4795,61 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2300.662608371699</v>
       </c>
       <c r="W8" t="n">
-        <v>1618.50539369077</v>
+        <v>1947.893953101585</v>
       </c>
       <c r="X8" t="n">
-        <v>1245.039635429691</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1245.039635429691</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5356891811371</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
         <v>99.59950625323012</v>
@@ -4962,7 +4962,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>670.9767331549069</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>450.1841540113768</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028583</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201016</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>877.9199491897558</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,25 +5281,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5363,19 +5363,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>732.358329063101</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>563.4221461351941</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
         <v>265.3924131404652</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W16" t="n">
-        <v>955.1031435655738</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X16" t="n">
-        <v>955.1031435655738</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y16" t="n">
-        <v>914.0067938933407</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="17">
@@ -5515,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>121.471171291856</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>121.471171291856</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>121.471171291856</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>121.471171291856</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>121.471171291856</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X19" t="n">
-        <v>244.1070389581962</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.1070389581962</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="20">
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5849,7 +5849,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="23">
@@ -5992,7 +5992,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6074,19 +6074,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6171,22 +6171,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6208,31 +6208,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207829</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>223.155231313709</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.9110074201016</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C28" t="n">
-        <v>213.9110074201016</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D28" t="n">
-        <v>213.9110074201016</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>213.9110074201016</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6426,10 +6426,10 @@
         <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201016</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9110074201016</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6487,13 +6487,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>441.900558318119</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X31" t="n">
-        <v>441.900558318119</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y31" t="n">
-        <v>441.900558318119</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.2482765610114</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>710.3120936331045</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1281.689320534781</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1281.689320534781</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1281.689320534781</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>1281.689320534781</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>1281.689320534781</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>1060.896741391251</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.9110074201016</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.9110074201016</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7177,7 +7177,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7219,7 +7219,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>223.155231313709</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>985.7136853104475</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>985.7136853104475</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.7136853104475</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,40 +7399,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>223.155231313709</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>192.044532683921</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C43" t="n">
-        <v>192.044532683921</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D43" t="n">
-        <v>192.044532683921</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>192.044532683921</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>192.044532683921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>709.4512536188989</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W43" t="n">
-        <v>420.0340835819383</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X43" t="n">
-        <v>192.044532683921</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.044532683921</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,10 +7669,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9722,10 +9722,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>85.30006332127836</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>277.671796620807</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>85.30006332127836</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>85.30006332127836</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>96.03744927814711</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>14.65345581610268</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>139.5191217238288</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.8992671765841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>142.4820294301231</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>29.89407122271365</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>125.0667464684375</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>99.23385149845802</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>121.0596245741546</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>178.4745567249566</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>116.457232939292</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>51.71984429841022</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>6.492880535499097</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.43122551999551</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>72.61440165197881</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>90.19300182595188</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>209.3265086968098</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453427</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719629</v>
@@ -26331,31 +26331,31 @@
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="J2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="K2" t="n">
+        <v>449683.418698365</v>
+      </c>
+      <c r="L2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="M2" t="n">
         <v>449683.4186983654</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="L2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983654</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26459,7 +26459,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871661</v>
@@ -26496,13 +26496,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-375218.7169278171</v>
+        <v>-375218.7169278172</v>
       </c>
       <c r="C6" t="n">
         <v>214749.1622867273</v>
@@ -26530,40 +26530,40 @@
         <v>214749.1622867273</v>
       </c>
       <c r="E6" t="n">
-        <v>-197742.0805392714</v>
+        <v>-196864.9484055219</v>
       </c>
       <c r="F6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.0880713742</v>
       </c>
       <c r="G6" t="n">
-        <v>327417.9559376246</v>
+        <v>328295.0880713741</v>
       </c>
       <c r="H6" t="n">
-        <v>327417.9559376246</v>
+        <v>328295.0880713742</v>
       </c>
       <c r="I6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.0880713742</v>
       </c>
       <c r="J6" t="n">
-        <v>150994.7367450319</v>
+        <v>151871.8688787812</v>
       </c>
       <c r="K6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.0880713739</v>
       </c>
       <c r="L6" t="n">
-        <v>327417.9559376246</v>
+        <v>328295.0880713742</v>
       </c>
       <c r="M6" t="n">
-        <v>192616.9407037876</v>
+        <v>193494.0728375372</v>
       </c>
       <c r="N6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.0880713742</v>
       </c>
       <c r="O6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.088071374</v>
       </c>
       <c r="P6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.0880713743</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>366.6076194018115</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>128.1430790558417</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5017245654297</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>14.65885272800596</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>145.9479280535419</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>158.4674088309382</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>97.15021098477483</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>35.47171118006437</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>326.0946738167064</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,13 +27903,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>186.4548081583659</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.65885272800586</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>198.2516768029394</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35743,10 +35743,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>127.210242276185</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>526.9295015768313</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>127.210242276185</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>127.210242276185</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
